--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
@@ -549,7 +549,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N2">
         <v>0.123995</v>
@@ -611,7 +611,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N3">
         <v>0.123995</v>
